--- a/data/priceLists/priceList.xlsx
+++ b/data/priceLists/priceList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\PatternDesign\transaction\src\main\java\pl\edu\agh\transaction\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\PatternDesign\transaction\data\priceLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7457E2-3239-450B-8774-5256D7AFAF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA471C2-F4F4-4B5E-B07C-AF1B8C65D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" xr2:uid="{0120D578-FD49-409B-99E4-16B7503BCC77}"/>
+    <workbookView xWindow="2676" yWindow="1920" windowWidth="17280" windowHeight="8976" xr2:uid="{0120D578-FD49-409B-99E4-16B7503BCC77}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>monthNum</t>
+    <t>price</t>
   </si>
   <si>
-    <t>price</t>
+    <t>monthNumber</t>
+  </si>
+  <si>
+    <t>premiumId</t>
   </si>
 </sst>
 </file>
@@ -79,10 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -397,367 +401,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44514D41-0B2D-4D91-9C7B-519D11CD09B4}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K9:K10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/priceLists/priceList.xlsx
+++ b/data/priceLists/priceList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\PatternDesign\transaction\src\main\java\pl\edu\agh\transaction\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\PatternDesign\transaction\data\priceLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7457E2-3239-450B-8774-5256D7AFAF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29164624-FB59-444E-8C3D-614057584D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" xr2:uid="{0120D578-FD49-409B-99E4-16B7503BCC77}"/>
   </bookViews>
@@ -34,12 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>monthNum</t>
+    <t>price</t>
   </si>
   <si>
-    <t>price</t>
+    <t>premiumId</t>
+  </si>
+  <si>
+    <t>monthNumber</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -397,367 +406,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44514D41-0B2D-4D91-9C7B-519D11CD09B4}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K9:K10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
